--- a/data/Rente.xlsx
+++ b/data/Rente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a118c15a2e4d080/Uni/4. Semester/Projekt/projekt4sem/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonaselkjaer/Library/CloudStorage/OneDrive-Personligt/Uni/4. Semester/Projekt/projekt4sem/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAA9089-BC31-42EC-94EC-AD1A391DF659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3AAA9089-BC31-42EC-94EC-AD1A391DF659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD798133-02BA-A242-94F9-8CA02697D8FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DA069635-080F-4C10-803B-8DF1D9D6787D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="16900" xr2:uid="{DA069635-080F-4C10-803B-8DF1D9D6787D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3004,22 +3004,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C46870-3524-4292-B5CE-38E87629C80D}">
   <dimension ref="A1:BP267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG174" sqref="BG174"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD55" sqref="BD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="67" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="67" width="11.5" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>708</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>518</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>531</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>76.813536435489695</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>696</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>460.56751163146203</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>113.041666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>341</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>0.95091553396210804</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>3.6724999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>130.61654999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>435.6661796523</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>404</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>428</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1.4416644589652201</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>12.379065000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>525</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>465</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>2034.3066343047201</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>633</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>36.298640833333302</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>622</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>623.93731193230599</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>118</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>91.745454439696104</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>600</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1.8601416666666699</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>360</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>385</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1.85932587706093</v>
       </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>581</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>2.6261000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>584</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>5.1639702910211103</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>553</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>424</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>1.3789563965221601</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>563</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>78.604490582991602</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>12.3688083333333</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>1.3015547747435501</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>432</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>0.95483249999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>383</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>873.31418954301398</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>494</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>6.7371581123711897</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>678</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>731</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>486</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>1989.3914712282799</v>
       </c>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>381</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>548</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>4256.1941666666698</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>351</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>467.18426118717599</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>484</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>105.530782711447</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>336</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>647.13581763136301</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>337</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>0.82199999899999998</v>
       </c>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>470</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>0.83333000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>436</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>0.42612499999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>343</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>23.356999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1.7596676</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>177.721</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>680</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>303</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>7.0761518624999997</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>410</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>55.1409916666667</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>679</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>141.99497500000001</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>683</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>478</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>238</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>251</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>19.160439741220401</v>
       </c>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>0.94962375315694103</v>
       </c>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>713</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>15.074999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>149.395331666667</v>
       </c>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>505</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>11.8068482348947</v>
       </c>
     </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>51.7562150334169</v>
       </c>
     </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>5.34406583333333</v>
       </c>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>2.2014069869584998</v>
       </c>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>369</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>5.8995156666666704</v>
       </c>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>335</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>6.7317182572463796</v>
       </c>
     </row>
-    <row r="81" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>377</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>489</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="83" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>658</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>0.811301715827773</v>
       </c>
     </row>
-    <row r="84" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>612</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>2.9161999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>8.2723999999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>130</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>0.811301715827773</v>
       </c>
     </row>
-    <row r="87" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>567</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>9565.0821834383296</v>
       </c>
     </row>
-    <row r="88" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>54.923467358667899</v>
       </c>
     </row>
-    <row r="89" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>573</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="90" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>635</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="91" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>681</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>365.39856083333302</v>
       </c>
     </row>
-    <row r="92" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="93" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>515</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>6.7317182572463796</v>
       </c>
     </row>
-    <row r="94" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>256</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>7.7482437500000003</v>
       </c>
     </row>
-    <row r="95" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>724</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>354</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>208.5</v>
       </c>
     </row>
-    <row r="97" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>342</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>260</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>7.8314166666666702</v>
       </c>
     </row>
-    <row r="99" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>541</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>24.485873729113099</v>
       </c>
     </row>
-    <row r="100" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>673</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>510</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>7.1597415</v>
       </c>
     </row>
-    <row r="102" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>115.630715521746</v>
       </c>
     </row>
-    <row r="103" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>372.59583333333302</v>
       </c>
     </row>
-    <row r="104" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>705</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>726</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>491</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>460</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>14849.8539362105</v>
       </c>
     </row>
-    <row r="109" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>720</v>
       </c>
@@ -18576,7 +18576,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>0.811301715827773</v>
       </c>
     </row>
-    <row r="111" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>78.604490582991602</v>
       </c>
     </row>
-    <row r="112" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>509</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>0.70227099833333295</v>
       </c>
     </row>
-    <row r="114" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>407</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="115" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="116" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>135.27990200138001</v>
       </c>
     </row>
-    <row r="117" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>474</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>3.3596144015818901</v>
       </c>
     </row>
-    <row r="118" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>169</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>1736.20738333333</v>
       </c>
     </row>
-    <row r="119" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>153.426816475659</v>
       </c>
     </row>
-    <row r="120" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>566</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="121" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>723</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>131.49814044376399</v>
       </c>
     </row>
-    <row r="122" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>728</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>117.86598920168301</v>
       </c>
     </row>
-    <row r="124" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>458</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>84.116222570404503</v>
       </c>
     </row>
-    <row r="125" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>663</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>4102.03786482335</v>
       </c>
     </row>
-    <row r="126" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>627</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>1.4416644589652201</v>
       </c>
     </row>
-    <row r="127" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>162</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="128" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>190</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>1291.4466666666699</v>
       </c>
     </row>
-    <row r="129" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>712</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>0.30625015441775399</v>
       </c>
     </row>
-    <row r="130" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>273</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>565</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>14035.2266926512</v>
       </c>
     </row>
-    <row r="132" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>434</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>1507.5</v>
       </c>
     </row>
-    <row r="133" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>235</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>152.933756840022</v>
       </c>
     </row>
-    <row r="134" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>544</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>4.8131750000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>504</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="136" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>595</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="138" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>639</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>607</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>198.76431684465601</v>
       </c>
     </row>
-    <row r="141" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>362</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>320</v>
       </c>
@@ -23358,7 +23358,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="143" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>490</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>16.355853484499999</v>
       </c>
     </row>
-    <row r="144" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>403</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>412</v>
       </c>
@@ -23658,7 +23658,7 @@
         <v>2.6002916666666702</v>
       </c>
     </row>
-    <row r="146" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>289</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>36.298640833333302</v>
       </c>
     </row>
-    <row r="147" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>263</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0.52939166666666704</v>
       </c>
     </row>
-    <row r="148" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>570</v>
       </c>
@@ -24051,7 +24051,7 @@
         <v>8.0652060833333294</v>
       </c>
     </row>
-    <row r="149" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>394</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>10.160660243035901</v>
       </c>
     </row>
-    <row r="151" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>401</v>
       </c>
@@ -24282,7 +24282,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>472</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>18.897189619815698</v>
       </c>
     </row>
-    <row r="153" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>415</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>4096.1161837453501</v>
       </c>
     </row>
-    <row r="154" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>216</v>
       </c>
@@ -24786,7 +24786,7 @@
         <v>15.386625</v>
       </c>
     </row>
-    <row r="155" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>233</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>20.12735</v>
       </c>
     </row>
-    <row r="157" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>697</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>446</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>58.574391666666699</v>
       </c>
     </row>
-    <row r="160" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>346</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="161" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>395</v>
       </c>
@@ -25493,7 +25493,7 @@
         <v>0.31167499999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>421</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>1381.61916666667</v>
       </c>
     </row>
-    <row r="163" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>96</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>400</v>
       </c>
@@ -25790,7 +25790,7 @@
         <v>0.95091553396210804</v>
       </c>
     </row>
-    <row r="165" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>393</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>3140.6778836480898</v>
       </c>
     </row>
-    <row r="166" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>177</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>597</v>
       </c>
@@ -26117,7 +26117,7 @@
         <v>63.850833333333298</v>
       </c>
     </row>
-    <row r="168" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>57</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>36.063333333333297</v>
       </c>
     </row>
-    <row r="169" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>50</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>44.182774999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>532</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>749.52749388220104</v>
       </c>
     </row>
-    <row r="171" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>440</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>4.4010763454007202</v>
       </c>
     </row>
-    <row r="172" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>215</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>153</v>
       </c>
@@ -27128,7 +27128,7 @@
         <v>16.355858333333298</v>
       </c>
     </row>
-    <row r="174" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>711</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>113.474367224106</v>
       </c>
     </row>
-    <row r="175" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="176" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>292</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>425.979158066857</v>
       </c>
     </row>
-    <row r="177" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>594</v>
       </c>
@@ -27940,7 +27940,7 @@
         <v>35.874421141966998</v>
       </c>
     </row>
-    <row r="178" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>1.983733</v>
       </c>
     </row>
-    <row r="179" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>669</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>9.6141666666666694</v>
       </c>
     </row>
-    <row r="180" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>125.199457792609</v>
       </c>
     </row>
-    <row r="181" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>103</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1.4416644589652201</v>
       </c>
     </row>
-    <row r="182" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>551</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>1.5771833333333301</v>
       </c>
     </row>
-    <row r="183" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>334</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>688</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>686</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>729</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>204.86718746998201</v>
       </c>
     </row>
-    <row r="187" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>530</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>483</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>3.83518137473542</v>
       </c>
     </row>
-    <row r="189" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>271</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>54.477785837204998</v>
       </c>
     </row>
-    <row r="190" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>668</v>
       </c>
@@ -29994,7 +29994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>442</v>
       </c>
@@ -30197,7 +30197,7 @@
         <v>3.5192297050674499</v>
       </c>
     </row>
-    <row r="192" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>72</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>4.4577583333333299</v>
       </c>
     </row>
-    <row r="193" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -30414,7 +30414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="194" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>549</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>514</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>422</v>
       </c>
@@ -30573,7 +30573,7 @@
         <v>180.10448</v>
       </c>
     </row>
-    <row r="197" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>6982.7523777669203</v>
       </c>
     </row>
-    <row r="198" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>85</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>129</v>
       </c>
@@ -30804,7 +30804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>583</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>353</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>113.474367224106</v>
       </c>
     </row>
-    <row r="202" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>606</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="203" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>543</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>4.6884750000000004</v>
       </c>
     </row>
-    <row r="204" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>68.4849416666667</v>
       </c>
     </row>
-    <row r="205" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>259</v>
       </c>
@@ -31710,7 +31710,7 @@
         <v>1030.3082997420599</v>
       </c>
     </row>
-    <row r="206" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>88</v>
       </c>
@@ -31724,7 +31724,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>468</v>
       </c>
@@ -31927,7 +31927,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -32130,7 +32130,7 @@
         <v>546.75885000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="210" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>496</v>
       </c>
@@ -32536,7 +32536,7 @@
         <v>1.37866666666667</v>
       </c>
     </row>
-    <row r="211" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>99</v>
       </c>
@@ -32739,7 +32739,7 @@
         <v>8.1555286976263002</v>
       </c>
     </row>
-    <row r="212" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>693</v>
       </c>
@@ -32942,7 +32942,7 @@
         <v>14.047649794215699</v>
       </c>
     </row>
-    <row r="213" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>564</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>445</v>
       </c>
@@ -33312,7 +33312,7 @@
         <v>0.95091553396210804</v>
       </c>
     </row>
-    <row r="215" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>526</v>
       </c>
@@ -33443,7 +33443,7 @@
         <v>23097.9873219373</v>
       </c>
     </row>
-    <row r="216" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>312</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>111.662183333333</v>
       </c>
     </row>
-    <row r="217" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>59</v>
       </c>
@@ -33549,7 +33549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="218" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -33599,7 +33599,7 @@
         <v>534.51118869175605</v>
       </c>
     </row>
-    <row r="219" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>304</v>
       </c>
@@ -33613,7 +33613,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -33627,7 +33627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="221" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>243</v>
       </c>
@@ -33827,7 +33827,7 @@
         <v>23.2904039548641</v>
       </c>
     </row>
-    <row r="222" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>501</v>
       </c>
@@ -34030,7 +34030,7 @@
         <v>24.709174756578999</v>
       </c>
     </row>
-    <row r="223" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>375</v>
       </c>
@@ -34092,7 +34092,7 @@
         <v>21.361416666666699</v>
       </c>
     </row>
-    <row r="224" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>366</v>
       </c>
@@ -34154,7 +34154,7 @@
         <v>191.02825783333299</v>
       </c>
     </row>
-    <row r="225" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>70</v>
       </c>
@@ -34357,7 +34357,7 @@
         <v>10.114251277564</v>
       </c>
     </row>
-    <row r="226" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>646</v>
       </c>
@@ -34560,7 +34560,7 @@
         <v>16.362283055928199</v>
       </c>
     </row>
-    <row r="227" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>358</v>
       </c>
@@ -34610,7 +34610,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="228" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>492</v>
       </c>
@@ -34813,7 +34813,7 @@
         <v>14.2727945255291</v>
       </c>
     </row>
-    <row r="229" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>173</v>
       </c>
@@ -35001,7 +35001,7 @@
         <v>492.61083333333301</v>
       </c>
     </row>
-    <row r="230" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>122</v>
       </c>
@@ -35015,7 +35015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>601</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="232" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>703</v>
       </c>
@@ -35232,7 +35232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="233" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>477</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="234" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -35449,7 +35449,7 @@
         <v>623.75970091118199</v>
       </c>
     </row>
-    <row r="235" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>546</v>
       </c>
@@ -35652,7 +35652,7 @@
         <v>35.061350214477599</v>
       </c>
     </row>
-    <row r="236" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>45</v>
       </c>
@@ -35759,7 +35759,7 @@
         <v>11.031075</v>
       </c>
     </row>
-    <row r="237" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>513</v>
       </c>
@@ -35797,7 +35797,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="238" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>145</v>
       </c>
@@ -35811,7 +35811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>662</v>
       </c>
@@ -36014,7 +36014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>127</v>
       </c>
@@ -36028,7 +36028,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="241" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>636</v>
       </c>
@@ -36231,7 +36231,7 @@
         <v>2.3279298273164399</v>
       </c>
     </row>
-    <row r="242" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -36245,7 +36245,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="243" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -36259,7 +36259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>654</v>
       </c>
@@ -36462,7 +36462,7 @@
         <v>6.7541289609947501</v>
       </c>
     </row>
-    <row r="245" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>203</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>3.1036000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>119</v>
       </c>
@@ -36868,7 +36868,7 @@
         <v>16.548860417306699</v>
       </c>
     </row>
-    <row r="247" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>431</v>
       </c>
@@ -36882,7 +36882,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="248" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>560</v>
       </c>
@@ -37082,7 +37082,7 @@
         <v>2297.76422623792</v>
       </c>
     </row>
-    <row r="249" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>684</v>
       </c>
@@ -37285,7 +37285,7 @@
         <v>3689.8173856686199</v>
       </c>
     </row>
-    <row r="250" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>429</v>
       </c>
@@ -37389,7 +37389,7 @@
         <v>32.342301599999999</v>
       </c>
     </row>
-    <row r="251" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>160</v>
       </c>
@@ -37403,7 +37403,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>520</v>
       </c>
@@ -37606,7 +37606,7 @@
         <v>41.1710833333333</v>
       </c>
     </row>
-    <row r="253" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>396</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>306</v>
       </c>
@@ -37871,7 +37871,7 @@
         <v>11050.145422363001</v>
       </c>
     </row>
-    <row r="255" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>53</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="256" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>79</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="257" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>322</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="258" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>425</v>
       </c>
@@ -38290,7 +38290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>387</v>
       </c>
@@ -38418,7 +38418,7 @@
         <v>23271.212500000001</v>
       </c>
     </row>
-    <row r="260" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>626</v>
       </c>
@@ -38621,7 +38621,7 @@
         <v>115.353916666667</v>
       </c>
     </row>
-    <row r="261" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>582</v>
       </c>
@@ -38635,7 +38635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>178</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>2.6889976473405901</v>
       </c>
     </row>
-    <row r="263" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>430</v>
       </c>
@@ -38915,7 +38915,7 @@
         <v>0.95091553396210804</v>
       </c>
     </row>
-    <row r="264" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>690</v>
       </c>
@@ -39028,7 +39028,7 @@
         <v>1114.29284114183</v>
       </c>
     </row>
-    <row r="265" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>481</v>
       </c>
@@ -39231,7 +39231,7 @@
         <v>16.355853484499999</v>
       </c>
     </row>
-    <row r="266" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -39434,7 +39434,7 @@
         <v>16.9375943252989</v>
       </c>
     </row>
-    <row r="267" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>730</v>
       </c>
@@ -39617,12 +39617,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>475</v>
       </c>
@@ -39639,7 +39639,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -39653,7 +39653,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>500</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>621</v>
       </c>
@@ -39681,7 +39681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -39692,7 +39692,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -39709,7 +39709,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>449</v>
       </c>
@@ -39723,7 +39723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>727</v>
       </c>
@@ -39737,7 +39737,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>610</v>
       </c>
@@ -39748,7 +39748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -39762,7 +39762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>488</v>
       </c>
@@ -39779,7 +39779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>279</v>
       </c>
@@ -39793,7 +39793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -39807,7 +39807,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -39821,7 +39821,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>299</v>
       </c>
@@ -39838,7 +39838,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>350</v>
       </c>
@@ -39855,7 +39855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>517</v>
       </c>
@@ -39869,7 +39869,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>539</v>
       </c>
@@ -39886,7 +39886,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -39903,7 +39903,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>333</v>
       </c>
@@ -39917,7 +39917,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>450</v>
       </c>
@@ -39931,7 +39931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -39948,7 +39948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -39962,7 +39962,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -39976,7 +39976,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -39990,7 +39990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>545</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>287</v>
       </c>
@@ -40035,7 +40035,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>631</v>
       </c>
@@ -40049,7 +40049,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>507</v>
       </c>
@@ -40063,7 +40063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -40077,7 +40077,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -40091,7 +40091,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -40105,7 +40105,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -40119,7 +40119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>390</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>480</v>
       </c>
@@ -40147,7 +40147,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>554</v>
       </c>
@@ -40164,7 +40164,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>227</v>
       </c>
@@ -40175,7 +40175,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>638</v>
       </c>
@@ -40189,7 +40189,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>311</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>645</v>
       </c>
@@ -40217,7 +40217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -40234,7 +40234,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>328</v>
       </c>
@@ -40248,7 +40248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -40262,7 +40262,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>218</v>
       </c>
@@ -40279,7 +40279,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>399</v>
       </c>
@@ -40293,7 +40293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -40307,7 +40307,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -40321,7 +40321,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>559</v>
       </c>
@@ -40335,7 +40335,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -40349,7 +40349,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>288</v>
       </c>
@@ -40357,7 +40357,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>245</v>
       </c>
@@ -40371,7 +40371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -40385,7 +40385,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>641</v>
       </c>
@@ -40399,7 +40399,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -40416,7 +40416,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>657</v>
       </c>
@@ -40430,7 +40430,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>476</v>
       </c>
@@ -40447,7 +40447,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -40461,7 +40461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -40475,7 +40475,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>519</v>
       </c>
@@ -40489,7 +40489,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>704</v>
       </c>
@@ -40503,7 +40503,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -40517,7 +40517,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -40525,7 +40525,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -40536,7 +40536,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>577</v>
       </c>
@@ -40547,7 +40547,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>319</v>
       </c>
@@ -40555,7 +40555,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>576</v>
       </c>
@@ -40566,7 +40566,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -40580,7 +40580,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>661</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>398</v>
       </c>
@@ -40608,7 +40608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>166</v>
       </c>
@@ -40625,7 +40625,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>647</v>
       </c>
@@ -40659,7 +40659,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -40676,7 +40676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>694</v>
       </c>
@@ -40687,7 +40687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>348</v>
       </c>
@@ -40698,7 +40698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -40715,7 +40715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -40729,7 +40729,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>620</v>
       </c>
@@ -40746,7 +40746,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>461</v>
       </c>
@@ -40760,7 +40760,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -40777,7 +40777,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -40791,7 +40791,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -40805,7 +40805,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>456</v>
       </c>
@@ -40822,7 +40822,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>540</v>
       </c>
@@ -40839,7 +40839,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>672</v>
       </c>
@@ -40856,7 +40856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>562</v>
       </c>
@@ -40870,7 +40870,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -40884,7 +40884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>158</v>
       </c>
@@ -40898,7 +40898,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -40912,7 +40912,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>534</v>
       </c>
@@ -40929,7 +40929,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>590</v>
       </c>
@@ -40943,7 +40943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>652</v>
       </c>
@@ -40957,7 +40957,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -40974,7 +40974,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -40988,7 +40988,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>521</v>
       </c>
@@ -41002,7 +41002,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>522</v>
       </c>
@@ -41013,7 +41013,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>332</v>
       </c>
@@ -41030,7 +41030,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>63</v>
       </c>
@@ -41047,7 +41047,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>619</v>
       </c>
@@ -41075,7 +41075,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>91</v>
       </c>
@@ -41092,7 +41092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>629</v>
       </c>
@@ -41106,7 +41106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -41117,7 +41117,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>264</v>
       </c>
@@ -41128,7 +41128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>538</v>
       </c>
@@ -41139,7 +41139,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -41150,7 +41150,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>467</v>
       </c>
@@ -41167,7 +41167,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>664</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -41195,7 +41195,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>587</v>
       </c>
@@ -41212,7 +41212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>56</v>
       </c>
@@ -41229,7 +41229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>175</v>
       </c>
@@ -41246,7 +41246,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>528</v>
       </c>
@@ -41260,7 +41260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -41274,7 +41274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>660</v>
       </c>
@@ -41288,7 +41288,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>555</v>
       </c>
@@ -41305,7 +41305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>692</v>
       </c>
@@ -41319,7 +41319,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>301</v>
       </c>
@@ -41333,7 +41333,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>557</v>
       </c>
@@ -41350,7 +41350,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -41364,7 +41364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>687</v>
       </c>
@@ -41381,7 +41381,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>411</v>
       </c>
@@ -41395,7 +41395,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>699</v>
       </c>
@@ -41412,7 +41412,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>516</v>
       </c>
@@ -41426,7 +41426,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>380</v>
       </c>
@@ -41440,7 +41440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>656</v>
       </c>
@@ -41454,7 +41454,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>497</v>
       </c>
@@ -41468,7 +41468,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>511</v>
       </c>
@@ -41476,7 +41476,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -41493,7 +41493,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -41510,7 +41510,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>651</v>
       </c>
@@ -41527,7 +41527,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>655</v>
       </c>
@@ -41541,7 +41541,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>371</v>
       </c>
@@ -41555,7 +41555,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>172</v>
       </c>
@@ -41563,7 +41563,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>580</v>
       </c>
@@ -41571,7 +41571,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -41582,7 +41582,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>345</v>
       </c>
@@ -41596,7 +41596,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>677</v>
       </c>
@@ -41610,7 +41610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -41621,7 +41621,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>295</v>
       </c>
@@ -41632,7 +41632,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>247</v>
       </c>
@@ -41649,7 +41649,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>710</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>111</v>
       </c>
@@ -41677,7 +41677,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>535</v>
       </c>
@@ -41694,7 +41694,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>459</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>296</v>
       </c>
@@ -41728,7 +41728,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>463</v>
       </c>
@@ -41742,7 +41742,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>196</v>
       </c>
@@ -41756,7 +41756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -41770,7 +41770,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>86</v>
       </c>
@@ -41787,7 +41787,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -41801,7 +41801,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>94</v>
       </c>
@@ -41815,7 +41815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -41826,7 +41826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>300</v>
       </c>
@@ -41840,7 +41840,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>632</v>
       </c>
@@ -41857,7 +41857,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>591</v>
       </c>
@@ -41868,7 +41868,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>644</v>
       </c>
@@ -41882,7 +41882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>604</v>
       </c>
@@ -41896,7 +41896,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -41913,7 +41913,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>66</v>
       </c>
@@ -41930,7 +41930,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>542</v>
       </c>
@@ -41938,7 +41938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>193</v>
       </c>
@@ -41955,7 +41955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>469</v>
       </c>
@@ -41972,7 +41972,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>605</v>
       </c>
@@ -41986,7 +41986,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>139</v>
       </c>
@@ -42000,7 +42000,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>406</v>
       </c>
@@ -42017,7 +42017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>417</v>
       </c>
@@ -42031,7 +42031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -42045,7 +42045,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>579</v>
       </c>
@@ -42059,7 +42059,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>653</v>
       </c>
@@ -42070,7 +42070,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>257</v>
       </c>
@@ -42087,7 +42087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -42101,7 +42101,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>140</v>
       </c>
@@ -42115,7 +42115,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>674</v>
       </c>
@@ -42132,7 +42132,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -42149,7 +42149,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>506</v>
       </c>
@@ -42166,7 +42166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>588</v>
       </c>
@@ -42180,7 +42180,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>709</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>258</v>
       </c>
@@ -42214,7 +42214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>282</v>
       </c>
@@ -42231,7 +42231,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>643</v>
       </c>
@@ -42239,7 +42239,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>558</v>
       </c>
@@ -42253,7 +42253,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>409</v>
       </c>
@@ -42261,7 +42261,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>133</v>
       </c>
@@ -42278,7 +42278,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>453</v>
       </c>
@@ -42292,7 +42292,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>283</v>
       </c>
@@ -42309,7 +42309,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>572</v>
       </c>
@@ -42323,7 +42323,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>372</v>
       </c>
@@ -42340,7 +42340,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -42354,7 +42354,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -42368,7 +42368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>281</v>
       </c>
@@ -42379,7 +42379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>676</v>
       </c>
@@ -42396,7 +42396,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -42410,7 +42410,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -42427,7 +42427,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>69</v>
       </c>
@@ -42444,7 +42444,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -42461,7 +42461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -42472,7 +42472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>266</v>
       </c>
@@ -42483,7 +42483,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>569</v>
       </c>
@@ -42497,7 +42497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -42511,7 +42511,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>323</v>
       </c>
@@ -42528,7 +42528,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>344</v>
       </c>
@@ -42542,7 +42542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>92</v>
       </c>
@@ -42556,7 +42556,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -42564,7 +42564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>236</v>
       </c>
@@ -42578,7 +42578,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>454</v>
       </c>
@@ -42595,7 +42595,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>550</v>
       </c>
@@ -42609,7 +42609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>81</v>
       </c>
@@ -42626,7 +42626,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>307</v>
       </c>
@@ -42640,7 +42640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>634</v>
       </c>
@@ -42654,7 +42654,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>93</v>
       </c>
@@ -42668,7 +42668,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>508</v>
       </c>
@@ -42682,7 +42682,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -42699,7 +42699,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -42716,7 +42716,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>447</v>
       </c>
@@ -42724,7 +42724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>62</v>
       </c>
@@ -42741,7 +42741,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>180</v>
       </c>
@@ -42752,7 +42752,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>189</v>
       </c>
@@ -42763,7 +42763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>437</v>
       </c>
@@ -42780,7 +42780,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>65</v>
       </c>
@@ -42797,7 +42797,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>148</v>
       </c>
@@ -42814,7 +42814,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>325</v>
       </c>
@@ -42831,7 +42831,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>277</v>
       </c>
@@ -42848,7 +42848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>137</v>
       </c>
@@ -42865,7 +42865,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>405</v>
       </c>
@@ -42879,7 +42879,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>152</v>
       </c>
@@ -42893,7 +42893,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>212</v>
       </c>
@@ -42910,7 +42910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>221</v>
       </c>
@@ -42924,7 +42924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>574</v>
       </c>
@@ -42938,7 +42938,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>367</v>
       </c>
@@ -42949,7 +42949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>502</v>
       </c>
@@ -42960,7 +42960,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>376</v>
       </c>
@@ -42974,7 +42974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>438</v>
       </c>
@@ -42991,7 +42991,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>47</v>
       </c>
@@ -43005,7 +43005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>255</v>
       </c>
@@ -43019,7 +43019,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>603</v>
       </c>
@@ -43030,7 +43030,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>275</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>457</v>
       </c>
@@ -43055,7 +43055,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>618</v>
       </c>
@@ -43072,7 +43072,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>89</v>
       </c>
@@ -43083,7 +43083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>493</v>
       </c>
@@ -43094,7 +43094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>170</v>
       </c>
@@ -43108,7 +43108,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -43122,7 +43122,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>420</v>
       </c>
@@ -43136,7 +43136,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>95</v>
       </c>
@@ -43150,7 +43150,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>455</v>
       </c>
@@ -43164,7 +43164,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>157</v>
       </c>
@@ -43181,7 +43181,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>498</v>
       </c>
@@ -43195,7 +43195,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>585</v>
       </c>
@@ -43206,7 +43206,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>718</v>
       </c>
@@ -43220,7 +43220,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>609</v>
       </c>
@@ -43234,7 +43234,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>154</v>
       </c>
@@ -43248,7 +43248,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>102</v>
       </c>
@@ -43262,7 +43262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>315</v>
       </c>
@@ -43273,7 +43273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>586</v>
       </c>
@@ -43287,7 +43287,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>136</v>
       </c>
@@ -43301,7 +43301,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>628</v>
       </c>
@@ -43315,7 +43315,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>123</v>
       </c>
@@ -43329,7 +43329,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>706</v>
       </c>
@@ -43337,7 +43337,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>479</v>
       </c>
@@ -43354,7 +43354,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>207</v>
       </c>
@@ -43368,7 +43368,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -43385,7 +43385,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>384</v>
       </c>
@@ -43402,7 +43402,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>426</v>
       </c>
@@ -43419,7 +43419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>340</v>
       </c>
@@ -43448,15 +43448,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>150</v>
       </c>
